--- a/documentation/test_plan.xlsx
+++ b/documentation/test_plan.xlsx
@@ -20,12 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t xml:space="preserve">PLAN DE PRUEBAS</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
+    <t xml:space="preserve">Rango normal[180 a 259]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_normal_persistente= 180,181,182,183,184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N= numeros de persistencia (por default 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_normal= 200, 220, 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rango alto [260 a 850]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_alto_persistente= 260,261,262,263,265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_alto=280,270,260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rango bajo [-400 a 179]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_bajo_persistente= 179,178,177,176,175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_bajo=160,150,140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.</t>
   </si>
   <si>
     <t xml:space="preserve">NOMBRE</t>
@@ -40,7 +70,7 @@
     <t xml:space="preserve">SALIDA ESPERADA</t>
   </si>
   <si>
-    <t xml:space="preserve">TIEMPO</t>
+    <t xml:space="preserve">TIEMPO (ciclos de reloj)</t>
   </si>
   <si>
     <t xml:space="preserve">ESTADO</t>
@@ -49,58 +79,109 @@
     <t xml:space="preserve">COMENTARIOS</t>
   </si>
   <si>
+    <t xml:space="preserve">T_NORMAL_B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estado normal [180 a 250]</t>
   </si>
   <si>
-    <t xml:space="preserve">T=200</t>
+    <t xml:space="preserve">Random b_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado = NORMAL; alerta=0, ventilador=0, calefactor=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ciclo x cada cambio temperatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_NORMAL_A</t>
   </si>
   <si>
     <t xml:space="preserve">Estado normal persistente [180 a 250]</t>
   </si>
   <si>
-    <t xml:space="preserve">T=200,201,202,201,200</t>
+    <t xml:space="preserve">Random a_normal_persistente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 ciclos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_BAJO_INM</t>
   </si>
   <si>
     <t xml:space="preserve">Detección baja inmediata</t>
   </si>
   <si>
-    <t xml:space="preserve">T=150</t>
+    <t xml:space="preserve">Random b_bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado = BAJO; alerta=0, ventilador=0, calefactor=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_ALTO_INM</t>
   </si>
   <si>
     <t xml:space="preserve">Detección alto inmediata</t>
   </si>
   <si>
-    <t xml:space="preserve">T=300</t>
+    <t xml:space="preserve">Random a_alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado = ALTO; alerta=0, ventilador=0, calefactor=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_BAJO_PERS</t>
   </si>
   <si>
     <t xml:space="preserve">Bajo persistente (N=5)</t>
   </si>
   <si>
-    <t xml:space="preserve">T=150,151,152,151,153</t>
+    <t xml:space="preserve">Random a_bajo_persistente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado = ALERTA; alerta=1, ventilador=0, calefactor=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 ciclos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_ALTO_PERS</t>
   </si>
   <si>
     <t xml:space="preserve">Alto persistente (N=5)</t>
   </si>
   <si>
-    <t xml:space="preserve">T=260,261,262,261,260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transitorio bajo (&lt;N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T=150,151,152</t>
+    <t xml:space="preserve">Random a_alto_persistente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado = ALERTA; alerta=1, ventilador=1, calefactor=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_TRANS_BAJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transitorio baja (&lt;N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 ciclos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_TRANS_ALTO</t>
   </si>
   <si>
     <t xml:space="preserve">Transitorio alto (&lt;N)</t>
   </si>
   <si>
-    <t xml:space="preserve">T=260,261,262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuperación automática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T=150 X N  luego T=200</t>
+    <t xml:space="preserve">T_RECU_AUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperación automática después del estado BAJO o ALTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random a_bajo   luego random a_alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_RESET_ALERTA</t>
   </si>
   <si>
     <t xml:space="preserve">Reset durante ALERTA</t>
@@ -109,16 +190,37 @@
     <t xml:space="preserve">arst_n=0 </t>
   </si>
   <si>
-    <t xml:space="preserve">Límite exacto frio</t>
+    <t xml:space="preserve">Inmediato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_LIM_BAJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Límite exacto frío </t>
   </si>
   <si>
     <t xml:space="preserve">T=179 a T=180</t>
   </si>
   <si>
+    <t xml:space="preserve">Estado = BAJO; alerta=0, ventilador=0, calefactor=0: Estado= NORMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 ciclos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_LIM_ALTO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Límite exacto calor</t>
   </si>
   <si>
-    <t xml:space="preserve">T=249 a T=250 </t>
+    <t xml:space="preserve">T=259 a T=260 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado = NORMAL; alerta=0, ventilador=0, calefactor=0: Estado= ALTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_ALTERNADO</t>
   </si>
   <si>
     <t xml:space="preserve">Alternancia entre bajo y alto </t>
@@ -127,28 +229,43 @@
     <t xml:space="preserve">T=150,300,150,300,150</t>
   </si>
   <si>
-    <t xml:space="preserve">Valor máximo de temperatura</t>
+    <t xml:space="preserve">Estado = NORMAL, alerta=0, ventilador=0, calefactor=0: Estado= ALTO, alerta=0, ventilador=0, calefactor=0: contador se resetea en cada cambio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_MAX_TEMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor máximo de temperatura sin persistencia</t>
   </si>
   <si>
     <t xml:space="preserve">T=850</t>
   </si>
   <si>
-    <t xml:space="preserve">Valor mínimo de temperatura</t>
+    <t xml:space="preserve">1 ciclo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_MIN_TEMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor mínimo de temperatura sin persistencia</t>
   </si>
   <si>
     <t xml:space="preserve">T=-400</t>
   </si>
   <si>
+    <t xml:space="preserve">T_ALTERNADO_PERS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Persistencia interrumpida</t>
   </si>
   <si>
-    <t xml:space="preserve">T=150,151,150,152,200, T150,T150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transicion directa de bajo a alto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T=150 , T=300</t>
+    <t xml:space="preserve">Random a_bajo   luego random a_alto, luego random a_bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado = estado pasado; cuando llega a T=200  se resetea el contador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_DESBORDAMIENTO</t>
   </si>
   <si>
     <t xml:space="preserve">Desbordamiento</t>
@@ -157,7 +274,13 @@
     <t xml:space="preserve">T=1023, T=-1024</t>
   </si>
   <si>
+    <t xml:space="preserve">T_EXCLUSION </t>
+  </si>
+  <si>
     <t xml:space="preserve">Verificar que ambos actuadores no se activen al mismo tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilador &amp;&amp; calefactor =0</t>
   </si>
 </sst>
 </file>
@@ -167,11 +290,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -188,13 +312,36 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3CAC7"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC9BA4"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -237,17 +384,57 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -275,7 +462,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3CAC7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
@@ -296,9 +483,9 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFEC9BA4"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -433,266 +620,470 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>45</v>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/documentation/test_plan.xlsx
+++ b/documentation/test_plan.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="TEST_CASE" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">T_NORMAL_B</t>
   </si>
   <si>
-    <t xml:space="preserve">Estado normal [180 a 250]</t>
+    <t xml:space="preserve">Estado normal [180 a 259]</t>
   </si>
   <si>
     <t xml:space="preserve">Random b_normal</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">T_NORMAL_A</t>
   </si>
   <si>
-    <t xml:space="preserve">Estado normal persistente [180 a 250]</t>
+    <t xml:space="preserve">Estado normal persistente [180 a 259]</t>
   </si>
   <si>
     <t xml:space="preserve">Random a_normal_persistente </t>
@@ -298,6 +298,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -432,7 +433,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -629,18 +630,18 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="57.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="59.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.2"/>
